--- a/Database/Referensi/Ref RO s.d SubKomponen.xlsx
+++ b/Database/Referensi/Ref RO s.d SubKomponen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACK\PUSDIK\2023\Github\TA.2023\Database\Referensi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE5CF9-C6A7-4C23-9ADC-0DDD1FB7F471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE0755-4CF8-4DC2-B695-BB7170D9DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2E4990C6-B433-47F0-9AF3-32FB0285E5E0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="422">
   <si>
     <t>AFA</t>
   </si>
@@ -1339,6 +1339,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Penyiapan Pendidik dan Tenaga Kependidikan</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1425,15 +1428,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1614,6 +1613,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1700,7 +1702,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Realisasi 1 DIPA Satker"/>
@@ -3729,7 +3731,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Realisasi Per Eselon 3 4"/>
@@ -3867,7 +3869,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DIPA4_PUSDIK (2)"/>
@@ -3910,7 +3912,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Realisasi 1 DIPA Satker"/>
@@ -4080,8 +4082,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A956E629-8A89-40F4-8701-A2E721FB3DE4}" name="Ref_Skmpnen" displayName="Ref_Skmpnen" ref="A1:L187" totalsRowShown="0">
-  <autoFilter ref="A1:L187" xr:uid="{A956E629-8A89-40F4-8701-A2E721FB3DE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A956E629-8A89-40F4-8701-A2E721FB3DE4}" name="Ref_Skmpnen" displayName="Ref_Skmpnen" ref="A1:L188" totalsRowShown="0">
+  <autoFilter ref="A1:L188" xr:uid="{A956E629-8A89-40F4-8701-A2E721FB3DE4}"/>
   <tableColumns count="12">
     <tableColumn id="11" xr3:uid="{F0C76C86-A22F-44D0-AF7D-4953273DFC17}" name="kdprog" dataDxfId="21"/>
     <tableColumn id="1" xr3:uid="{81D8FE95-F620-4A5E-81BC-E871A7B5668E}" name="kdgiat" dataDxfId="20"/>
@@ -4096,7 +4098,7 @@
     <tableColumn id="8" xr3:uid="{13511EEB-09A9-4FBD-9675-6304100DFD3B}" name="Es2" dataDxfId="13"/>
     <tableColumn id="9" xr3:uid="{AB52AB68-6BDD-44C0-8B23-FF0267EDE4AC}" name="Koord" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{E4F4B915-4137-4945-80EE-2AD1A4F8B115}" name="SubKoord" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{0B5B7CAB-7B50-4283-9F26-36158CE3BD23}" name="Column1" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{0B5B7CAB-7B50-4283-9F26-36158CE3BD23}" name="Column1" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4105,11 +4107,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{549CF5E5-47AC-42CB-86CF-4E8288C3FEB2}" name="Eselon2" displayName="Eselon2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{549CF5E5-47AC-42CB-86CF-4E8288C3FEB2}" name="Eselon2" displayName="Eselon2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:B4" xr:uid="{549CF5E5-47AC-42CB-86CF-4E8288C3FEB2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7605FD4-3269-40B1-B617-1F3D87C7841B}" name="Kode" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CE4CDD97-5898-4D8C-AF50-89A234C4A56F}" name="Eselon2" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E7605FD4-3269-40B1-B617-1F3D87C7841B}" name="Kode" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CE4CDD97-5898-4D8C-AF50-89A234C4A56F}" name="Eselon2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4128,13 +4130,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{24FCF63A-EF30-48EC-8260-E0462B345355}" name="Table5" displayName="Table5" ref="J1:M9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{24FCF63A-EF30-48EC-8260-E0462B345355}" name="Table5" displayName="Table5" ref="J1:M9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="J1:M9" xr:uid="{24FCF63A-EF30-48EC-8260-E0462B345355}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1E68BC39-2D6D-45E3-937F-3A284DB17780}" name="KdEs2" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C7403F90-C273-428E-8705-8BBCB1B52E68}" name="kdKoord" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1185F443-3C3E-47EA-AB5C-6957A7258DC7}" name="KdSubKoord" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A5314D7A-D292-4A4C-9167-BDFF29F523B6}" name="SubKoordinator" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1E68BC39-2D6D-45E3-937F-3A284DB17780}" name="KdEs2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C7403F90-C273-428E-8705-8BBCB1B52E68}" name="kdKoord" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1185F443-3C3E-47EA-AB5C-6957A7258DC7}" name="KdSubKoord" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A5314D7A-D292-4A4C-9167-BDFF29F523B6}" name="SubKoordinator" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4429,7 +4431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4876,7 +4878,7 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="115.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6039,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67E9B8A-7AF6-4F42-B172-992C4A9F6BDC}">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6135,7 +6137,7 @@
       <c r="K2" t="s">
         <v>402</v>
       </c>
-      <c r="L2" s="7" t="str">
+      <c r="L2" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.051.A</v>
       </c>
@@ -6175,7 +6177,7 @@
       <c r="K3" t="s">
         <v>402</v>
       </c>
-      <c r="L3" s="7" t="str">
+      <c r="L3" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.051.B</v>
       </c>
@@ -6215,7 +6217,7 @@
       <c r="K4" t="s">
         <v>402</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="L4" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.051.C</v>
       </c>
@@ -6255,7 +6257,7 @@
       <c r="K5" t="s">
         <v>402</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="L5" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.051.D</v>
       </c>
@@ -6295,7 +6297,7 @@
       <c r="K6" t="s">
         <v>402</v>
       </c>
-      <c r="L6" s="7" t="str">
+      <c r="L6" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.051.E</v>
       </c>
@@ -6335,7 +6337,7 @@
       <c r="K7" t="s">
         <v>402</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="L7" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.051.F</v>
       </c>
@@ -6375,7 +6377,7 @@
       <c r="K8" t="s">
         <v>402</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="L8" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.052.A</v>
       </c>
@@ -6415,7 +6417,7 @@
       <c r="K9" t="s">
         <v>402</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="L9" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.052.B</v>
       </c>
@@ -6455,7 +6457,7 @@
       <c r="K10" t="s">
         <v>402</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="L10" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.052.C</v>
       </c>
@@ -6495,7 +6497,7 @@
       <c r="K11" t="s">
         <v>402</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="L11" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.052.D</v>
       </c>
@@ -6535,7 +6537,7 @@
       <c r="K12" t="s">
         <v>402</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="L12" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.052.E</v>
       </c>
@@ -6575,7 +6577,7 @@
       <c r="K13" t="s">
         <v>402</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="L13" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.053.A</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="K14" t="s">
         <v>402</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="L14" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.053.B</v>
       </c>
@@ -6655,7 +6657,7 @@
       <c r="K15" t="s">
         <v>402</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="L15" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.053.C</v>
       </c>
@@ -6695,7 +6697,7 @@
       <c r="K16" t="s">
         <v>402</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="L16" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.053.D</v>
       </c>
@@ -6735,7 +6737,7 @@
       <c r="K17" t="s">
         <v>402</v>
       </c>
-      <c r="L17" s="7" t="str">
+      <c r="L17" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.053.F</v>
       </c>
@@ -6775,7 +6777,7 @@
       <c r="K18" t="s">
         <v>402</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="L18" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.054.A</v>
       </c>
@@ -6815,7 +6817,7 @@
       <c r="K19" t="s">
         <v>402</v>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="L19" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.054.B</v>
       </c>
@@ -6855,7 +6857,7 @@
       <c r="K20" t="s">
         <v>402</v>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="L20" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.054.C</v>
       </c>
@@ -6895,7 +6897,7 @@
       <c r="K21" t="s">
         <v>402</v>
       </c>
-      <c r="L21" s="7" t="str">
+      <c r="L21" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2375.AFA.001.054.D</v>
       </c>
@@ -6935,7 +6937,7 @@
       <c r="K22" t="s">
         <v>389</v>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="L22" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.051.A</v>
       </c>
@@ -6975,7 +6977,7 @@
       <c r="K23" t="s">
         <v>389</v>
       </c>
-      <c r="L23" s="7" t="str">
+      <c r="L23" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.051.B</v>
       </c>
@@ -7015,7 +7017,7 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="L24" s="7" t="str">
+      <c r="L24" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.052.A</v>
       </c>
@@ -7055,7 +7057,7 @@
       <c r="K25" t="s">
         <v>390</v>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.052.B</v>
       </c>
@@ -7095,7 +7097,7 @@
       <c r="K26" t="s">
         <v>391</v>
       </c>
-      <c r="L26" s="7" t="str">
+      <c r="L26" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.053.A</v>
       </c>
@@ -7135,7 +7137,7 @@
       <c r="K27" t="s">
         <v>391</v>
       </c>
-      <c r="L27" s="7" t="str">
+      <c r="L27" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.053.B</v>
       </c>
@@ -7175,7 +7177,7 @@
       <c r="K28" t="s">
         <v>391</v>
       </c>
-      <c r="L28" s="7" t="str">
+      <c r="L28" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.053.C</v>
       </c>
@@ -7200,11 +7202,11 @@
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>421</v>
       </c>
       <c r="H29" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Evaluasi Beban Kerja Guru dan Dosen</v>
+        <v>A. Penyiapan Pendidik dan Tenaga Kependidikan</v>
       </c>
       <c r="I29" t="s">
         <v>373</v>
@@ -7215,49 +7217,49 @@
       <c r="K29" t="s">
         <v>392</v>
       </c>
-      <c r="L29" s="7" t="str">
+      <c r="L29" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>DL.2376.AFA.001.054.A</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H30" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. TANPA SUB KOMPONEN</v>
+        <v>B. Evaluasi Beban Kerja Guru dan Dosen</v>
       </c>
       <c r="I30" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J30" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="K30" t="s">
-        <v>402</v>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.CAN.001.101.A</v>
+        <v>392</v>
+      </c>
+      <c r="L30" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>DL.2376.AFA.001.054.B</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7274,30 +7276,30 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H31" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Alat Pengolah Data dan Informasi</v>
+        <v>A. TANPA SUB KOMPONEN</v>
       </c>
       <c r="I31" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J31" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K31" t="s">
-        <v>393</v>
-      </c>
-      <c r="L31" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.CAN.001.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L31" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.CAN.001.101.A</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -7308,36 +7310,36 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H32" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penyusunan Laporan BMN UAKPB Sekretariat BRSDMP KP dan UAPPBE-1 BRSDM KP</v>
+        <v>A. Alat Pengolah Data dan Informasi</v>
       </c>
       <c r="I32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J32" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K32" t="s">
-        <v>402</v>
-      </c>
-      <c r="L32" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.A</v>
+        <v>393</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.CAN.001.301.A</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -7357,14 +7359,14 @@
         <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H33" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pengelolaan Barang Milik Negara Rumah Negara lingkup BRSDM KP</v>
+        <v>A. Penyusunan Laporan BMN UAKPB Sekretariat BRSDMP KP dan UAPPBE-1 BRSDM KP</v>
       </c>
       <c r="I33" t="s">
         <v>377</v>
@@ -7375,9 +7377,9 @@
       <c r="K33" t="s">
         <v>402</v>
       </c>
-      <c r="L33" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.B</v>
+      <c r="L33" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.A</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -7397,14 +7399,14 @@
         <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H34" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Inventarisasi Sarana dan Prasarana dan Penyelesaian Permasalahan Administrasi dan Kepemilikan BMN</v>
+        <v>B. Pengelolaan Barang Milik Negara Rumah Negara lingkup BRSDM KP</v>
       </c>
       <c r="I34" t="s">
         <v>377</v>
@@ -7415,9 +7417,9 @@
       <c r="K34" t="s">
         <v>402</v>
       </c>
-      <c r="L34" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.C</v>
+      <c r="L34" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.B</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -7437,14 +7439,14 @@
         <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H35" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Penyusunan Rencana Kebutuhan BMN Tahun 2023</v>
+        <v>C. Inventarisasi Sarana dan Prasarana dan Penyelesaian Permasalahan Administrasi dan Kepemilikan BMN</v>
       </c>
       <c r="I35" t="s">
         <v>377</v>
@@ -7455,9 +7457,9 @@
       <c r="K35" t="s">
         <v>402</v>
       </c>
-      <c r="L35" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.D</v>
+      <c r="L35" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.C</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -7477,14 +7479,14 @@
         <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H36" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Penyelesaian Penetapan Status Penggunaan dan Penghapusan BMN Satker BRSDM</v>
+        <v>D. Penyusunan Rencana Kebutuhan BMN Tahun 2023</v>
       </c>
       <c r="I36" t="s">
         <v>377</v>
@@ -7495,9 +7497,9 @@
       <c r="K36" t="s">
         <v>402</v>
       </c>
-      <c r="L36" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.E</v>
+      <c r="L36" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.D</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -7517,14 +7519,14 @@
         <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H37" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>G. Pelaksanaan PBJ Lingkup Pusat dan Daerah</v>
+        <v>E. Penyelesaian Penetapan Status Penggunaan dan Penghapusan BMN Satker BRSDM</v>
       </c>
       <c r="I37" t="s">
         <v>377</v>
@@ -7535,9 +7537,9 @@
       <c r="K37" t="s">
         <v>402</v>
       </c>
-      <c r="L37" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.G</v>
+      <c r="L37" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.E</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -7551,20 +7553,20 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H38" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Fasilitasi Penyusunan Legislasi</v>
+        <v>G. Pelaksanaan PBJ Lingkup Pusat dan Daerah</v>
       </c>
       <c r="I38" t="s">
         <v>377</v>
@@ -7575,9 +7577,9 @@
       <c r="K38" t="s">
         <v>402</v>
       </c>
-      <c r="L38" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.957.101.A</v>
+      <c r="L38" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.G</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -7597,14 +7599,14 @@
         <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H39" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Advokasi Permasalahan Hukum</v>
+        <v>A. Fasilitasi Penyusunan Legislasi</v>
       </c>
       <c r="I39" t="s">
         <v>377</v>
@@ -7615,9 +7617,9 @@
       <c r="K39" t="s">
         <v>402</v>
       </c>
-      <c r="L39" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.957.101.B</v>
+      <c r="L39" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.957.101.A</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -7631,20 +7633,20 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H40" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pelayanan Kehumasan Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
+        <v>B. Advokasi Permasalahan Hukum</v>
       </c>
       <c r="I40" t="s">
         <v>377</v>
@@ -7655,9 +7657,9 @@
       <c r="K40" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.101.A</v>
+      <c r="L40" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.957.101.B</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -7674,17 +7676,17 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
         <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="H41" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pelayanan Informasi Publik Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
+        <v>A. Pelayanan Kehumasan Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
       </c>
       <c r="I41" t="s">
         <v>377</v>
@@ -7695,9 +7697,9 @@
       <c r="K41" t="s">
         <v>402</v>
       </c>
-      <c r="L41" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.102.A</v>
+      <c r="L41" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.101.A</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -7714,17 +7716,17 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
         <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="H42" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pelayanan Perpustakaan dan Diseminasi Riset dan Sumber Daya Kelautan dan Perikanan</v>
+        <v>A. Pelayanan Informasi Publik Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
       </c>
       <c r="I42" t="s">
         <v>377</v>
@@ -7735,9 +7737,9 @@
       <c r="K42" t="s">
         <v>402</v>
       </c>
-      <c r="L42" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.103.A</v>
+      <c r="L42" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.102.A</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -7754,17 +7756,17 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H43" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penyusunan dan/atau Evaluasi Kesepakatan Kerjasama Internasional Lingkup Sekretariat dan/atau BRSDMKP</v>
+        <v>A. Pelayanan Perpustakaan dan Diseminasi Riset dan Sumber Daya Kelautan dan Perikanan</v>
       </c>
       <c r="I43" t="s">
         <v>377</v>
@@ -7775,9 +7777,9 @@
       <c r="K43" t="s">
         <v>402</v>
       </c>
-      <c r="L43" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.111.A</v>
+      <c r="L43" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.103.A</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -7797,14 +7799,14 @@
         <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H44" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Penyusunan dan/atau Evaluasi Kesepakatan Kerjasama Antarlembaga Lingkup Sekretariat dan/atau BRSDMKP</v>
+        <v>A. Penyusunan dan/atau Evaluasi Kesepakatan Kerjasama Internasional Lingkup Sekretariat dan/atau BRSDMKP</v>
       </c>
       <c r="I44" t="s">
         <v>377</v>
@@ -7815,9 +7817,9 @@
       <c r="K44" t="s">
         <v>402</v>
       </c>
-      <c r="L44" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.111.B</v>
+      <c r="L44" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.111.A</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -7834,30 +7836,30 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H45" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Kerjasama Pendidikan KP</v>
+        <v>B. Penyusunan dan/atau Evaluasi Kesepakatan Kerjasama Antarlembaga Lingkup Sekretariat dan/atau BRSDMKP</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.311.A</v>
+        <v>402</v>
+      </c>
+      <c r="L45" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.111.B</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -7871,33 +7873,33 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H46" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AA. Gaji dan Tunjangan Sekretariat BRSDM</v>
+        <v>A. Kerjasama Pendidikan KP</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J46" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>402</v>
-      </c>
-      <c r="L46" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.001.AA</v>
+        <v>394</v>
+      </c>
+      <c r="L46" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.311.A</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -7917,17 +7919,17 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H47" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>DA. Gaji dan Tunjangan Pusat pelatihan dan Penyuluhan KP</v>
+        <v>AA. Gaji dan Tunjangan Sekretariat BRSDM</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J47" t="s">
         <v>402</v>
@@ -7935,9 +7937,9 @@
       <c r="K47" t="s">
         <v>402</v>
       </c>
-      <c r="L47" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.001.DA</v>
+      <c r="L47" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.001.AA</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -7957,27 +7959,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H48" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GA. Gaji dan Tunjangan Pusat Pendidikan KP</v>
+        <v>DA. Gaji dan Tunjangan Pusat pelatihan dan Penyuluhan KP</v>
       </c>
       <c r="I48" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K48" t="s">
-        <v>395</v>
-      </c>
-      <c r="L48" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.001.GA</v>
+        <v>402</v>
+      </c>
+      <c r="L48" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.001.DA</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -7994,30 +7996,30 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H49" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AA. Operasional dan Pemeliharaan Kantor Sekretariat BRSDM</v>
+        <v>GA. Gaji dan Tunjangan Pusat Pendidikan KP</v>
       </c>
       <c r="I49" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J49" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
-      </c>
-      <c r="L49" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AA</v>
+        <v>395</v>
+      </c>
+      <c r="L49" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.001.GA</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -8037,14 +8039,14 @@
         <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H50" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AB. Langganan Daya dan Jasa</v>
+        <v>AA. Operasional dan Pemeliharaan Kantor Sekretariat BRSDM</v>
       </c>
       <c r="I50" t="s">
         <v>377</v>
@@ -8055,9 +8057,9 @@
       <c r="K50" t="s">
         <v>402</v>
       </c>
-      <c r="L50" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AB</v>
+      <c r="L50" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AA</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -8077,14 +8079,14 @@
         <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H51" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AC. Pemeliharaan Kantor</v>
+        <v>AB. Langganan Daya dan Jasa</v>
       </c>
       <c r="I51" t="s">
         <v>377</v>
@@ -8095,9 +8097,9 @@
       <c r="K51" t="s">
         <v>402</v>
       </c>
-      <c r="L51" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AC</v>
+      <c r="L51" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AB</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -8117,14 +8119,14 @@
         <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H52" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AD. Pelaksanaan Operator Kantor</v>
+        <v>AC. Pemeliharaan Kantor</v>
       </c>
       <c r="I52" t="s">
         <v>377</v>
@@ -8135,9 +8137,9 @@
       <c r="K52" t="s">
         <v>402</v>
       </c>
-      <c r="L52" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AD</v>
+      <c r="L52" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AC</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -8157,14 +8159,14 @@
         <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H53" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AE. Operasional dan Pemeliharaan Kantor ANCOL</v>
+        <v>AD. Pelaksanaan Operator Kantor</v>
       </c>
       <c r="I53" t="s">
         <v>377</v>
@@ -8175,9 +8177,9 @@
       <c r="K53" t="s">
         <v>402</v>
       </c>
-      <c r="L53" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AE</v>
+      <c r="L53" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AD</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -8197,14 +8199,14 @@
         <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H54" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AF. Langganan Daya dan Jasa Kantor Ancol</v>
+        <v>AE. Operasional dan Pemeliharaan Kantor ANCOL</v>
       </c>
       <c r="I54" t="s">
         <v>377</v>
@@ -8215,9 +8217,9 @@
       <c r="K54" t="s">
         <v>402</v>
       </c>
-      <c r="L54" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AF</v>
+      <c r="L54" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -8237,14 +8239,14 @@
         <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H55" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AG. Pemeliharaan Kantor Ancol</v>
+        <v>AF. Langganan Daya dan Jasa Kantor Ancol</v>
       </c>
       <c r="I55" t="s">
         <v>377</v>
@@ -8255,9 +8257,9 @@
       <c r="K55" t="s">
         <v>402</v>
       </c>
-      <c r="L55" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AG</v>
+      <c r="L55" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AF</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -8277,17 +8279,17 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H56" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>DA. Operasional dan Pemeliharaan Kantor Pusat Pelatihan dan Penyuluhan KP</v>
+        <v>AG. Pemeliharaan Kantor Ancol</v>
       </c>
       <c r="I56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J56" t="s">
         <v>402</v>
@@ -8295,9 +8297,9 @@
       <c r="K56" t="s">
         <v>402</v>
       </c>
-      <c r="L56" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.DA</v>
+      <c r="L56" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AG</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -8317,14 +8319,14 @@
         <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H57" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>DB. Langganan Daya dan Jasa</v>
+        <v>DA. Operasional dan Pemeliharaan Kantor Pusat Pelatihan dan Penyuluhan KP</v>
       </c>
       <c r="I57" t="s">
         <v>379</v>
@@ -8335,9 +8337,9 @@
       <c r="K57" t="s">
         <v>402</v>
       </c>
-      <c r="L57" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.DB</v>
+      <c r="L57" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.DA</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -8357,14 +8359,14 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H58" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>DC. Pemeliharaan Kantor</v>
+        <v>DB. Langganan Daya dan Jasa</v>
       </c>
       <c r="I58" t="s">
         <v>379</v>
@@ -8375,9 +8377,9 @@
       <c r="K58" t="s">
         <v>402</v>
       </c>
-      <c r="L58" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.DC</v>
+      <c r="L58" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.DB</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -8397,14 +8399,14 @@
         <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H59" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>DD. Pelaksanaan Operasional Kantor</v>
+        <v>DC. Pemeliharaan Kantor</v>
       </c>
       <c r="I59" t="s">
         <v>379</v>
@@ -8415,9 +8417,9 @@
       <c r="K59" t="s">
         <v>402</v>
       </c>
-      <c r="L59" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.DD</v>
+      <c r="L59" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.DC</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -8437,27 +8439,27 @@
         <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H60" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GA. Operasional dan Pemeliharaan Kantor Pusat Pendidikan KP</v>
+        <v>DD. Pelaksanaan Operasional Kantor</v>
       </c>
       <c r="I60" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J60" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>393</v>
-      </c>
-      <c r="L60" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.GA</v>
+        <v>402</v>
+      </c>
+      <c r="L60" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.DD</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -8477,14 +8479,14 @@
         <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H61" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GB. Langganan Daya dan Jasa Pusat Pendidikan KP</v>
+        <v>GA. Operasional dan Pemeliharaan Kantor Pusat Pendidikan KP</v>
       </c>
       <c r="I61" t="s">
         <v>373</v>
@@ -8495,9 +8497,9 @@
       <c r="K61" t="s">
         <v>393</v>
       </c>
-      <c r="L61" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.GB</v>
+      <c r="L61" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.GA</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -8517,14 +8519,14 @@
         <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H62" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GC. Pemeliharaan Kantor Pusat Pendidikan KP</v>
+        <v>GB. Langganan Daya dan Jasa Pusat Pendidikan KP</v>
       </c>
       <c r="I62" t="s">
         <v>373</v>
@@ -8535,9 +8537,9 @@
       <c r="K62" t="s">
         <v>393</v>
       </c>
-      <c r="L62" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.GC</v>
+      <c r="L62" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.GB</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -8557,14 +8559,14 @@
         <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H63" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GD. Pembayaran Pelaksanaan Operasional Kantor Pusat Pendidikan KP</v>
+        <v>GC. Pemeliharaan Kantor Pusat Pendidikan KP</v>
       </c>
       <c r="I63" t="s">
         <v>373</v>
@@ -8575,9 +8577,9 @@
       <c r="K63" t="s">
         <v>393</v>
       </c>
-      <c r="L63" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.GD</v>
+      <c r="L63" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.GC</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -8591,33 +8593,33 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H64" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pembinaan, Pengelolaan Ketatausahaan dan Persuratan</v>
+        <v>GD. Pembayaran Pelaksanaan Operasional Kantor Pusat Pendidikan KP</v>
       </c>
       <c r="I64" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J64" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K64" t="s">
-        <v>402</v>
-      </c>
-      <c r="L64" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.101.A</v>
+        <v>393</v>
+      </c>
+      <c r="L64" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.GD</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -8637,14 +8639,14 @@
         <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H65" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Dukungan Layanan Kegiatan Kesekretariatan dan Tata Kelola Rumahtangga dan Tata Usaha Pimpinan  serta Keprotokolan lingkup BRSDM</v>
+        <v>A. Pembinaan, Pengelolaan Ketatausahaan dan Persuratan</v>
       </c>
       <c r="I65" t="s">
         <v>377</v>
@@ -8655,9 +8657,9 @@
       <c r="K65" t="s">
         <v>402</v>
       </c>
-      <c r="L65" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.101.B</v>
+      <c r="L65" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.101.A</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -8674,20 +8676,20 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H66" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pengelolaan Kepegawaian Pelatihan dan Penyuluhan KP</v>
+        <v>B. Dukungan Layanan Kegiatan Kesekretariatan dan Tata Kelola Rumahtangga dan Tata Usaha Pimpinan  serta Keprotokolan lingkup BRSDM</v>
       </c>
       <c r="I66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J66" t="s">
         <v>402</v>
@@ -8695,9 +8697,9 @@
       <c r="K66" t="s">
         <v>402</v>
       </c>
-      <c r="L66" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.A</v>
+      <c r="L66" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.101.B</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -8717,14 +8719,14 @@
         <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H67" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Validasi Data BMN Pelatihan dan Penyuluhan</v>
+        <v>A. Pengelolaan Kepegawaian Pelatihan dan Penyuluhan KP</v>
       </c>
       <c r="I67" t="s">
         <v>379</v>
@@ -8735,9 +8737,9 @@
       <c r="K67" t="s">
         <v>402</v>
       </c>
-      <c r="L67" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.B</v>
+      <c r="L67" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.A</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -8757,14 +8759,14 @@
         <v>182</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H68" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Pengelolaan Persuratan dan Kearsipan Pelatihan dan Penyuluhan</v>
+        <v>B. Validasi Data BMN Pelatihan dan Penyuluhan</v>
       </c>
       <c r="I68" t="s">
         <v>379</v>
@@ -8775,9 +8777,9 @@
       <c r="K68" t="s">
         <v>402</v>
       </c>
-      <c r="L68" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.C</v>
+      <c r="L68" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.B</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -8797,14 +8799,14 @@
         <v>182</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H69" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Rekrutmen PPB</v>
+        <v>C. Pengelolaan Persuratan dan Kearsipan Pelatihan dan Penyuluhan</v>
       </c>
       <c r="I69" t="s">
         <v>379</v>
@@ -8815,9 +8817,9 @@
       <c r="K69" t="s">
         <v>402</v>
       </c>
-      <c r="L69" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.D</v>
+      <c r="L69" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.C</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -8837,14 +8839,14 @@
         <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H70" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>F. Administrasi Perkantoran Pelatihan dan Penyuluhan KP</v>
+        <v>D. Rekrutmen PPB</v>
       </c>
       <c r="I70" t="s">
         <v>379</v>
@@ -8855,9 +8857,9 @@
       <c r="K70" t="s">
         <v>402</v>
       </c>
-      <c r="L70" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.F</v>
+      <c r="L70" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.D</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -8874,30 +8876,30 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H71" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Implementasi SIMAK - BMN</v>
+        <v>F. Administrasi Perkantoran Pelatihan dan Penyuluhan KP</v>
       </c>
       <c r="I71" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J71" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K71" t="s">
-        <v>393</v>
-      </c>
-      <c r="L71" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L71" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.F</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -8917,14 +8919,14 @@
         <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H72" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pembinaan dan Koordinasi Pimpinan</v>
+        <v>A. Implementasi SIMAK - BMN</v>
       </c>
       <c r="I72" t="s">
         <v>373</v>
@@ -8935,9 +8937,9 @@
       <c r="K72" t="s">
         <v>393</v>
       </c>
-      <c r="L72" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.B</v>
+      <c r="L72" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.A</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -8957,14 +8959,14 @@
         <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H73" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Pengelolaan Kearsipan, Tata Naskah Dinas dan Persuratan Pusat Pendidikan KP</v>
+        <v>B. Pembinaan dan Koordinasi Pimpinan</v>
       </c>
       <c r="I73" t="s">
         <v>373</v>
@@ -8975,9 +8977,9 @@
       <c r="K73" t="s">
         <v>393</v>
       </c>
-      <c r="L73" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.C</v>
+      <c r="L73" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.B</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -8997,14 +8999,14 @@
         <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H74" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Penyusunan Bahan Tindak Lanjut dan Pemutakhiran Data</v>
+        <v>C. Pengelolaan Kearsipan, Tata Naskah Dinas dan Persuratan Pusat Pendidikan KP</v>
       </c>
       <c r="I74" t="s">
         <v>373</v>
@@ -9015,9 +9017,9 @@
       <c r="K74" t="s">
         <v>393</v>
       </c>
-      <c r="L74" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.D</v>
+      <c r="L74" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.C</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -9037,14 +9039,14 @@
         <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H75" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Pengelolaan Administrasi Kepegawaian Pusdik KP</v>
+        <v>D. Penyusunan Bahan Tindak Lanjut dan Pemutakhiran Data</v>
       </c>
       <c r="I75" t="s">
         <v>373</v>
@@ -9055,9 +9057,9 @@
       <c r="K75" t="s">
         <v>393</v>
       </c>
-      <c r="L75" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.E</v>
+      <c r="L75" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.D</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -9077,27 +9079,27 @@
         <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H76" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>F. Peningkatan Kompetensi Pendidik dan Tenaga Kependidikan</v>
+        <v>E. Pengelolaan Administrasi Kepegawaian Pusdik KP</v>
       </c>
       <c r="I76" t="s">
         <v>373</v>
       </c>
       <c r="J76" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K76" t="s">
-        <v>392</v>
-      </c>
-      <c r="L76" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.F</v>
+        <v>393</v>
+      </c>
+      <c r="L76" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.E</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -9117,27 +9119,27 @@
         <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H77" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>G. Pembinaan Pelaksanaan Kewirausahaan dan TEFA</v>
+        <v>F. Peningkatan Kompetensi Pendidik dan Tenaga Kependidikan</v>
       </c>
       <c r="I77" t="s">
         <v>373</v>
       </c>
       <c r="J77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s">
-        <v>389</v>
-      </c>
-      <c r="L77" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.G</v>
+        <v>392</v>
+      </c>
+      <c r="L77" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.F</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -9157,14 +9159,14 @@
         <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H78" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>I. Dukungan Penerimaan dan Penetapan Terpusat Peserta Didik Lingkup KKP</v>
+        <v>G. Pembinaan Pelaksanaan Kewirausahaan dan TEFA</v>
       </c>
       <c r="I78" t="s">
         <v>373</v>
@@ -9173,11 +9175,11 @@
         <v>381</v>
       </c>
       <c r="K78" t="s">
-        <v>390</v>
-      </c>
-      <c r="L78" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.I</v>
+        <v>389</v>
+      </c>
+      <c r="L78" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.G</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -9197,14 +9199,14 @@
         <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="H79" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>J. Dukungan Pelaksanaan Wisuda</v>
+        <v>I. Dukungan Penerimaan dan Penetapan Terpusat Peserta Didik Lingkup KKP</v>
       </c>
       <c r="I79" t="s">
         <v>373</v>
@@ -9215,9 +9217,9 @@
       <c r="K79" t="s">
         <v>390</v>
       </c>
-      <c r="L79" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.J</v>
+      <c r="L79" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.I</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -9231,33 +9233,33 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="G80" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="H80" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penyelenggaraan Data Riset dan SDM KP</v>
+        <v>J. Dukungan Pelaksanaan Wisuda</v>
       </c>
       <c r="I80" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J80" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="K80" t="s">
-        <v>402</v>
-      </c>
-      <c r="L80" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.963.101.A</v>
+        <v>390</v>
+      </c>
+      <c r="L80" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.J</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -9277,14 +9279,14 @@
         <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H81" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Forum Data dan Informasi BRSDM (kegiatan di blokir AA)</v>
+        <v>A. Penyelenggaraan Data Riset dan SDM KP</v>
       </c>
       <c r="I81" t="s">
         <v>377</v>
@@ -9295,9 +9297,9 @@
       <c r="K81" t="s">
         <v>402</v>
       </c>
-      <c r="L81" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.963.101.B</v>
+      <c r="L81" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.963.101.A</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -9314,17 +9316,17 @@
         <v>115</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H82" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pengelolaan Sistem Informasi Riset  dan SDM KP</v>
+        <v>B. Forum Data dan Informasi BRSDM (kegiatan di blokir AA)</v>
       </c>
       <c r="I82" t="s">
         <v>377</v>
@@ -9335,9 +9337,9 @@
       <c r="K82" t="s">
         <v>402</v>
       </c>
-      <c r="L82" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.963.102.A</v>
+      <c r="L82" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.963.101.B</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -9357,14 +9359,14 @@
         <v>174</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H83" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Penerapan Manajemen Pengetahuan Terstandar BRSDM</v>
+        <v>A. Pengelolaan Sistem Informasi Riset  dan SDM KP</v>
       </c>
       <c r="I83" t="s">
         <v>377</v>
@@ -9375,9 +9377,9 @@
       <c r="K83" t="s">
         <v>402</v>
       </c>
-      <c r="L83" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.963.102.B</v>
+      <c r="L83" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.963.102.A</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -9397,14 +9399,14 @@
         <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G84" t="s">
-        <v>410</v>
+        <v>286</v>
       </c>
       <c r="H84" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Pengelolaan Jurnal Ilmiah KP</v>
+        <v>B. Penerapan Manajemen Pengetahuan Terstandar BRSDM</v>
       </c>
       <c r="I84" t="s">
         <v>377</v>
@@ -9415,9 +9417,9 @@
       <c r="K84" t="s">
         <v>402</v>
       </c>
-      <c r="L84" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.963.102.C</v>
+      <c r="L84" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.963.102.B</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -9431,20 +9433,20 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G85" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="H85" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penataan Kelembagaan Lingkup BRSDM</v>
+        <v>C. Pengelolaan Jurnal Ilmiah KP</v>
       </c>
       <c r="I85" t="s">
         <v>377</v>
@@ -9455,9 +9457,9 @@
       <c r="K85" t="s">
         <v>402</v>
       </c>
-      <c r="L85" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.960.101.A</v>
+      <c r="L85" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.963.102.C</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -9477,14 +9479,14 @@
         <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H86" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Fasilitasi Evaluasi Organisasi dan Tata Laksana</v>
+        <v>A. Penataan Kelembagaan Lingkup BRSDM</v>
       </c>
       <c r="I86" t="s">
         <v>377</v>
@@ -9495,9 +9497,9 @@
       <c r="K86" t="s">
         <v>402</v>
       </c>
-      <c r="L86" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.960.101.B</v>
+      <c r="L86" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.960.101.A</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -9514,17 +9516,17 @@
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H87" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penilaian Mandiri Reformasi Birokrasi</v>
+        <v>B. Fasilitasi Evaluasi Organisasi dan Tata Laksana</v>
       </c>
       <c r="I87" t="s">
         <v>377</v>
@@ -9535,9 +9537,9 @@
       <c r="K87" t="s">
         <v>402</v>
       </c>
-      <c r="L87" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.960.102.A</v>
+      <c r="L87" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.960.101.B</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -9557,14 +9559,14 @@
         <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H88" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. WBK/WBBM</v>
+        <v>A. Penilaian Mandiri Reformasi Birokrasi</v>
       </c>
       <c r="I88" t="s">
         <v>377</v>
@@ -9575,9 +9577,9 @@
       <c r="K88" t="s">
         <v>402</v>
       </c>
-      <c r="L88" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.960.102.B</v>
+      <c r="L88" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.960.102.A</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -9588,23 +9590,23 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E89" t="s">
         <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="H89" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Gedung dan Bangunan Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
+        <v>B. WBK/WBBM</v>
       </c>
       <c r="I89" t="s">
         <v>377</v>
@@ -9615,9 +9617,9 @@
       <c r="K89" t="s">
         <v>402</v>
       </c>
-      <c r="L89" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBB.971.102.A</v>
+      <c r="L89" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.960.102.B</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -9631,20 +9633,20 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
         <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="H90" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Kendaraan Bermotor Riset dan Sumber Daya Manusia Kelautan dan Perikanan (AA)</v>
+        <v>A. Gedung dan Bangunan Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
       </c>
       <c r="I90" t="s">
         <v>377</v>
@@ -9655,9 +9657,9 @@
       <c r="K90" t="s">
         <v>402</v>
       </c>
-      <c r="L90" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBB.951.101.A</v>
+      <c r="L90" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBB.971.102.A</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -9674,17 +9676,17 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
         <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H91" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Fasilitas Perkantoran</v>
+        <v>A. Kendaraan Bermotor Riset dan Sumber Daya Manusia Kelautan dan Perikanan (AA)</v>
       </c>
       <c r="I91" t="s">
         <v>377</v>
@@ -9695,9 +9697,9 @@
       <c r="K91" t="s">
         <v>402</v>
       </c>
-      <c r="L91" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBB.951.103.A</v>
+      <c r="L91" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBB.951.101.A</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -9714,30 +9716,30 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
         <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H92" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Kendaraan Dinas</v>
+        <v>A. Fasilitas Perkantoran</v>
       </c>
       <c r="I92" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J92" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K92" t="s">
-        <v>393</v>
-      </c>
-      <c r="L92" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBB.951.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L92" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBB.951.103.A</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -9748,36 +9750,36 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
         <v>65</v>
       </c>
       <c r="G93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H93" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pelayanan Perencanaan dan Pengembangan SDM Aparatur Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
+        <v>A. Kendaraan Dinas</v>
       </c>
       <c r="I93" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J93" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K93" t="s">
-        <v>402</v>
-      </c>
-      <c r="L93" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.101.A</v>
+        <v>393</v>
+      </c>
+      <c r="L93" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBB.951.301.A</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -9794,17 +9796,17 @@
         <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
         <v>65</v>
       </c>
       <c r="G94" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H94" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Fasilitasi Pengelolaan dan Penilaian Angka Kredit Jabatan Fungsional Lingkup BRSDMKP</v>
+        <v>A. Pelayanan Perencanaan dan Pengembangan SDM Aparatur Riset dan Sumber Daya Manusia Kelautan dan Perikanan</v>
       </c>
       <c r="I94" t="s">
         <v>377</v>
@@ -9815,9 +9817,9 @@
       <c r="K94" t="s">
         <v>402</v>
       </c>
-      <c r="L94" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.102.A</v>
+      <c r="L94" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.101.A</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -9837,14 +9839,14 @@
         <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H95" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Validasi dan Updating Database SDM Lingkup BRSDMKP</v>
+        <v>A. Fasilitasi Pengelolaan dan Penilaian Angka Kredit Jabatan Fungsional Lingkup BRSDMKP</v>
       </c>
       <c r="I95" t="s">
         <v>377</v>
@@ -9855,9 +9857,9 @@
       <c r="K95" t="s">
         <v>402</v>
       </c>
-      <c r="L95" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.102.B</v>
+      <c r="L95" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.102.A</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -9874,17 +9876,17 @@
         <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H96" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pelayanan Mutasi</v>
+        <v>B. Validasi dan Updating Database SDM Lingkup BRSDMKP</v>
       </c>
       <c r="I96" t="s">
         <v>377</v>
@@ -9895,9 +9897,9 @@
       <c r="K96" t="s">
         <v>402</v>
       </c>
-      <c r="L96" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.103.A</v>
+      <c r="L96" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.102.B</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -9917,14 +9919,14 @@
         <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H97" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pelayanan Ketatausahaan Kepegawaian</v>
+        <v>A. Pelayanan Mutasi</v>
       </c>
       <c r="I97" t="s">
         <v>377</v>
@@ -9935,9 +9937,9 @@
       <c r="K97" t="s">
         <v>402</v>
       </c>
-      <c r="L97" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.103.B</v>
+      <c r="L97" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.103.A</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -9948,23 +9950,23 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H98" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Perencanaan Program</v>
+        <v>B. Pelayanan Ketatausahaan Kepegawaian</v>
       </c>
       <c r="I98" t="s">
         <v>377</v>
@@ -9975,9 +9977,9 @@
       <c r="K98" t="s">
         <v>402</v>
       </c>
-      <c r="L98" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.101.A</v>
+      <c r="L98" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.103.B</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -9997,14 +9999,14 @@
         <v>170</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H99" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Perencanaan dan Revisi Anggaran Unit Eselon I BRSDM</v>
+        <v>A. Perencanaan Program</v>
       </c>
       <c r="I99" t="s">
         <v>377</v>
@@ -10015,9 +10017,9 @@
       <c r="K99" t="s">
         <v>402</v>
       </c>
-      <c r="L99" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.101.B</v>
+      <c r="L99" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.101.A</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -10037,14 +10039,14 @@
         <v>170</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H100" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Perencanaan Kinerja</v>
+        <v>B. Perencanaan dan Revisi Anggaran Unit Eselon I BRSDM</v>
       </c>
       <c r="I100" t="s">
         <v>377</v>
@@ -10055,9 +10057,9 @@
       <c r="K100" t="s">
         <v>402</v>
       </c>
-      <c r="L100" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.101.C</v>
+      <c r="L100" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.101.B</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -10077,14 +10079,14 @@
         <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G101" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H101" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Perencanaan Umum</v>
+        <v>C. Perencanaan Kinerja</v>
       </c>
       <c r="I101" t="s">
         <v>377</v>
@@ -10095,9 +10097,9 @@
       <c r="K101" t="s">
         <v>402</v>
       </c>
-      <c r="L101" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.101.D</v>
+      <c r="L101" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.101.C</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -10114,20 +10116,20 @@
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H102" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penyusunan Perencanaan Kinerja Pelatihan dan Penyuluhan KP</v>
+        <v>D. Perencanaan Umum</v>
       </c>
       <c r="I102" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J102" t="s">
         <v>402</v>
@@ -10135,9 +10137,9 @@
       <c r="K102" t="s">
         <v>402</v>
       </c>
-      <c r="L102" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.201.A</v>
+      <c r="L102" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.101.D</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -10157,14 +10159,14 @@
         <v>182</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H103" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Penyusunan Renja Kegiatan Pelatihan dan Penyuluhan KP TA 2023</v>
+        <v>A. Penyusunan Perencanaan Kinerja Pelatihan dan Penyuluhan KP</v>
       </c>
       <c r="I103" t="s">
         <v>379</v>
@@ -10175,9 +10177,9 @@
       <c r="K103" t="s">
         <v>402</v>
       </c>
-      <c r="L103" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.201.B</v>
+      <c r="L103" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.201.A</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -10197,14 +10199,14 @@
         <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H104" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Konsolidasi Teknis Kegiatan Pelatihan dan Penyuluhan KP</v>
+        <v>B. Penyusunan Renja Kegiatan Pelatihan dan Penyuluhan KP TA 2023</v>
       </c>
       <c r="I104" t="s">
         <v>379</v>
@@ -10215,9 +10217,9 @@
       <c r="K104" t="s">
         <v>402</v>
       </c>
-      <c r="L104" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.201.C</v>
+      <c r="L104" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.201.B</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -10237,14 +10239,14 @@
         <v>182</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H105" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Penyusunan Dokumen Rumusan Kebijakan Teknis Penyelenggaraan Pelatihan dan Penyuluhan serta Sertifikasi KP</v>
+        <v>C. Konsolidasi Teknis Kegiatan Pelatihan dan Penyuluhan KP</v>
       </c>
       <c r="I105" t="s">
         <v>379</v>
@@ -10255,9 +10257,9 @@
       <c r="K105" t="s">
         <v>402</v>
       </c>
-      <c r="L105" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.201.D</v>
+      <c r="L105" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.201.C</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -10274,30 +10276,30 @@
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H106" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penyusunan Perencanaan Pendidikan KP</v>
+        <v>D. Penyusunan Dokumen Rumusan Kebijakan Teknis Penyelenggaraan Pelatihan dan Penyuluhan serta Sertifikasi KP</v>
       </c>
       <c r="I106" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J106" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K106" t="s">
-        <v>394</v>
-      </c>
-      <c r="L106" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L106" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.201.D</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -10317,14 +10319,14 @@
         <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H107" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Sinkronisasi Kegiatan Pendidikan KP</v>
+        <v>A. Penyusunan Perencanaan Pendidikan KP</v>
       </c>
       <c r="I107" t="s">
         <v>373</v>
@@ -10335,9 +10337,9 @@
       <c r="K107" t="s">
         <v>394</v>
       </c>
-      <c r="L107" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.301.B</v>
+      <c r="L107" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.301.A</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -10357,14 +10359,14 @@
         <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H108" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Identifikasi dan kajian program pendidikan KP</v>
+        <v>B. Sinkronisasi Kegiatan Pendidikan KP</v>
       </c>
       <c r="I108" t="s">
         <v>373</v>
@@ -10375,9 +10377,9 @@
       <c r="K108" t="s">
         <v>394</v>
       </c>
-      <c r="L108" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.301.C</v>
+      <c r="L108" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.301.B</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -10391,33 +10393,33 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H109" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pelaksanaan Pengawasan Internal  Kearsipan Lingkup BRSDM</v>
+        <v>C. Identifikasi dan kajian program pendidikan KP</v>
       </c>
       <c r="I109" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J109" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K109" t="s">
-        <v>402</v>
-      </c>
-      <c r="L109" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.974.101.A</v>
+        <v>394</v>
+      </c>
+      <c r="L109" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.301.C</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -10437,14 +10439,14 @@
         <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H110" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pembinaan dan Pengelolaan Kearsipan BRSDM</v>
+        <v>A. Pelaksanaan Pengawasan Internal  Kearsipan Lingkup BRSDM</v>
       </c>
       <c r="I110" t="s">
         <v>377</v>
@@ -10455,9 +10457,9 @@
       <c r="K110" t="s">
         <v>402</v>
       </c>
-      <c r="L110" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.974.101.B</v>
+      <c r="L110" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.974.101.A</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -10477,14 +10479,14 @@
         <v>170</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H111" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Percepatan Proses Pemusnahan Arsip In Aktif lingkup BRSDM</v>
+        <v>B. Pembinaan dan Pengelolaan Kearsipan BRSDM</v>
       </c>
       <c r="I111" t="s">
         <v>377</v>
@@ -10495,9 +10497,9 @@
       <c r="K111" t="s">
         <v>402</v>
       </c>
-      <c r="L111" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.974.101.C</v>
+      <c r="L111" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.974.101.B</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -10517,14 +10519,14 @@
         <v>170</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G112" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H112" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Implementasi transpormasi digitalisasi arsip</v>
+        <v>C. Percepatan Proses Pemusnahan Arsip In Aktif lingkup BRSDM</v>
       </c>
       <c r="I112" t="s">
         <v>377</v>
@@ -10535,9 +10537,9 @@
       <c r="K112" t="s">
         <v>402</v>
       </c>
-      <c r="L112" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.974.101.D</v>
+      <c r="L112" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.974.101.C</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -10551,20 +10553,20 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
         <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H113" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penyusunan Laporan Keuangan</v>
+        <v>D. Implementasi transpormasi digitalisasi arsip</v>
       </c>
       <c r="I113" t="s">
         <v>377</v>
@@ -10575,9 +10577,9 @@
       <c r="K113" t="s">
         <v>402</v>
       </c>
-      <c r="L113" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.A</v>
+      <c r="L113" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.974.101.D</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -10597,14 +10599,14 @@
         <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H114" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pengelolaan PNBP</v>
+        <v>A. Penyusunan Laporan Keuangan</v>
       </c>
       <c r="I114" t="s">
         <v>377</v>
@@ -10615,9 +10617,9 @@
       <c r="K114" t="s">
         <v>402</v>
       </c>
-      <c r="L114" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.B</v>
+      <c r="L114" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.A</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -10637,14 +10639,14 @@
         <v>170</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H115" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Penyusunan Petunjuk Pelaksanaan Anggaran dan Kegiatan BRSDM TA 2022</v>
+        <v>B. Pengelolaan PNBP</v>
       </c>
       <c r="I115" t="s">
         <v>377</v>
@@ -10655,9 +10657,9 @@
       <c r="K115" t="s">
         <v>402</v>
       </c>
-      <c r="L115" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.C</v>
+      <c r="L115" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.B</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -10677,14 +10679,14 @@
         <v>170</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H116" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Perbendaharaan Administrasi Keuangan</v>
+        <v>C. Penyusunan Petunjuk Pelaksanaan Anggaran dan Kegiatan BRSDM TA 2022</v>
       </c>
       <c r="I116" t="s">
         <v>377</v>
@@ -10695,9 +10697,9 @@
       <c r="K116" t="s">
         <v>402</v>
       </c>
-      <c r="L116" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.D</v>
+      <c r="L116" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.C</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -10717,14 +10719,14 @@
         <v>170</v>
       </c>
       <c r="F117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H117" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Implementasi Sistem Pengendalian Intern Pemerintah BRSDM KP</v>
+        <v>D. Perbendaharaan Administrasi Keuangan</v>
       </c>
       <c r="I117" t="s">
         <v>377</v>
@@ -10735,9 +10737,9 @@
       <c r="K117" t="s">
         <v>402</v>
       </c>
-      <c r="L117" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.E</v>
+      <c r="L117" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.D</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -10757,14 +10759,14 @@
         <v>170</v>
       </c>
       <c r="F118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H118" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>F. Penyelesaian Tindak Lanjut Hasil Audit</v>
+        <v>E. Implementasi Sistem Pengendalian Intern Pemerintah BRSDM KP</v>
       </c>
       <c r="I118" t="s">
         <v>377</v>
@@ -10775,9 +10777,9 @@
       <c r="K118" t="s">
         <v>402</v>
       </c>
-      <c r="L118" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.F</v>
+      <c r="L118" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.E</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -10794,20 +10796,20 @@
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F119" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H119" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Penyusunan SPIP</v>
+        <v>F. Penyelesaian Tindak Lanjut Hasil Audit</v>
       </c>
       <c r="I119" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J119" t="s">
         <v>402</v>
@@ -10815,9 +10817,9 @@
       <c r="K119" t="s">
         <v>402</v>
       </c>
-      <c r="L119" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.201.B</v>
+      <c r="L119" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.F</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -10837,14 +10839,14 @@
         <v>182</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H120" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Validasi dan pertanggungjawaban keuangan</v>
+        <v>B. Penyusunan SPIP</v>
       </c>
       <c r="I120" t="s">
         <v>379</v>
@@ -10855,9 +10857,9 @@
       <c r="K120" t="s">
         <v>402</v>
       </c>
-      <c r="L120" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.201.C</v>
+      <c r="L120" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.201.B</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -10877,14 +10879,14 @@
         <v>182</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G121" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H121" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Penyelesaian Tindak Lanjut</v>
+        <v>C. Validasi dan pertanggungjawaban keuangan</v>
       </c>
       <c r="I121" t="s">
         <v>379</v>
@@ -10895,9 +10897,9 @@
       <c r="K121" t="s">
         <v>402</v>
       </c>
-      <c r="L121" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.201.D</v>
+      <c r="L121" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.201.C</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -10914,30 +10916,30 @@
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="F122" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G122" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H122" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Sistem Akuntansi Keuangan Berbasis Akrual</v>
+        <v>D. Penyelesaian Tindak Lanjut</v>
       </c>
       <c r="I122" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J122" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K122" t="s">
-        <v>395</v>
-      </c>
-      <c r="L122" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L122" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.201.D</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -10957,14 +10959,14 @@
         <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H123" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Penyusunan Program dan Anggaran Lingkup Pusdik KP</v>
+        <v>A. Sistem Akuntansi Keuangan Berbasis Akrual</v>
       </c>
       <c r="I123" t="s">
         <v>373</v>
@@ -10975,9 +10977,9 @@
       <c r="K123" t="s">
         <v>395</v>
       </c>
-      <c r="L123" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.B</v>
+      <c r="L123" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.A</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -10997,14 +10999,14 @@
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H124" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Penyusunan POK Lingkup Satker Pusdik KP</v>
+        <v>B. Penyusunan Program dan Anggaran Lingkup Pusdik KP</v>
       </c>
       <c r="I124" t="s">
         <v>373</v>
@@ -11015,9 +11017,9 @@
       <c r="K124" t="s">
         <v>395</v>
       </c>
-      <c r="L124" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.C</v>
+      <c r="L124" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.B</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -11037,14 +11039,14 @@
         <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H125" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Evaluasi Kinerja Keuangan dan Penyusunan SPIP</v>
+        <v>C. Penyusunan POK Lingkup Satker Pusdik KP</v>
       </c>
       <c r="I125" t="s">
         <v>373</v>
@@ -11055,9 +11057,9 @@
       <c r="K125" t="s">
         <v>395</v>
       </c>
-      <c r="L125" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.D</v>
+      <c r="L125" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.C</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -11077,14 +11079,14 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H126" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Validasi Data Gaji dan Tunjangan</v>
+        <v>D. Evaluasi Kinerja Keuangan dan Penyusunan SPIP</v>
       </c>
       <c r="I126" t="s">
         <v>373</v>
@@ -11095,9 +11097,9 @@
       <c r="K126" t="s">
         <v>395</v>
       </c>
-      <c r="L126" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.E</v>
+      <c r="L126" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.D</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -11117,14 +11119,14 @@
         <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H127" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>F. Verifikasi dan Validasi Pertanggung Jawaban Kegiatan</v>
+        <v>E. Validasi Data Gaji dan Tunjangan</v>
       </c>
       <c r="I127" t="s">
         <v>373</v>
@@ -11135,9 +11137,9 @@
       <c r="K127" t="s">
         <v>395</v>
       </c>
-      <c r="L127" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.F</v>
+      <c r="L127" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.E</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -11151,33 +11153,33 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H128" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Monitoring dan Evaluasi Kinerja</v>
+        <v>F. Verifikasi dan Validasi Pertanggung Jawaban Kegiatan</v>
       </c>
       <c r="I128" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J128" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K128" t="s">
-        <v>402</v>
-      </c>
-      <c r="L128" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.101.A</v>
+        <v>395</v>
+      </c>
+      <c r="L128" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.F</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -11197,14 +11199,14 @@
         <v>170</v>
       </c>
       <c r="F129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G129" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H129" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Monitoring dan Evaluasi Program dan Kegiatan Prioritas dan Penyelenggaraan Teknis RSDMKP</v>
+        <v>A. Monitoring dan Evaluasi Kinerja</v>
       </c>
       <c r="I129" t="s">
         <v>377</v>
@@ -11215,9 +11217,9 @@
       <c r="K129" t="s">
         <v>402</v>
       </c>
-      <c r="L129" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.101.B</v>
+      <c r="L129" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.101.A</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -11234,17 +11236,17 @@
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H130" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Reviu dan Pengukuran Kinerja Lingkup BRSDM</v>
+        <v>B. Monitoring dan Evaluasi Program dan Kegiatan Prioritas dan Penyelenggaraan Teknis RSDMKP</v>
       </c>
       <c r="I130" t="s">
         <v>377</v>
@@ -11255,9 +11257,9 @@
       <c r="K130" t="s">
         <v>402</v>
       </c>
-      <c r="L130" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.102.A</v>
+      <c r="L130" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.101.B</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -11277,14 +11279,14 @@
         <v>174</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H131" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Penyusunan Bahan Pimpinan</v>
+        <v>A. Reviu dan Pengukuran Kinerja Lingkup BRSDM</v>
       </c>
       <c r="I131" t="s">
         <v>377</v>
@@ -11295,9 +11297,9 @@
       <c r="K131" t="s">
         <v>402</v>
       </c>
-      <c r="L131" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.102.B</v>
+      <c r="L131" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.102.A</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -11317,14 +11319,14 @@
         <v>174</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H132" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Penyusunan Laporan Kinerja Lingkup BRSDM</v>
+        <v>B. Penyusunan Bahan Pimpinan</v>
       </c>
       <c r="I132" t="s">
         <v>377</v>
@@ -11335,9 +11337,9 @@
       <c r="K132" t="s">
         <v>402</v>
       </c>
-      <c r="L132" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.102.C</v>
+      <c r="L132" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.102.B</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -11357,14 +11359,14 @@
         <v>174</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G133" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H133" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Penyusunan Laporan Pelaksanaan Program Kegiatan BRSDM</v>
+        <v>C. Penyusunan Laporan Kinerja Lingkup BRSDM</v>
       </c>
       <c r="I133" t="s">
         <v>377</v>
@@ -11375,9 +11377,9 @@
       <c r="K133" t="s">
         <v>402</v>
       </c>
-      <c r="L133" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.102.D</v>
+      <c r="L133" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.102.C</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -11394,20 +11396,20 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F134" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H134" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. MONITORING DAN EVALUASI PELATIHAN DAN PENYULUHAN</v>
+        <v>D. Penyusunan Laporan Pelaksanaan Program Kegiatan BRSDM</v>
       </c>
       <c r="I134" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J134" t="s">
         <v>402</v>
@@ -11415,9 +11417,9 @@
       <c r="K134" t="s">
         <v>402</v>
       </c>
-      <c r="L134" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.201.A</v>
+      <c r="L134" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.102.D</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -11437,14 +11439,14 @@
         <v>182</v>
       </c>
       <c r="F135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G135" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H135" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. PENYUSUNAN INSTRUMEN MONITORING DAN EVALUASI PELATIHAN DAN PENYULUHAN KP</v>
+        <v>A. MONITORING DAN EVALUASI PELATIHAN DAN PENYULUHAN</v>
       </c>
       <c r="I135" t="s">
         <v>379</v>
@@ -11455,9 +11457,9 @@
       <c r="K135" t="s">
         <v>402</v>
       </c>
-      <c r="L135" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.201.B</v>
+      <c r="L135" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.201.A</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -11474,17 +11476,17 @@
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G136" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H136" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. PENYUSUNAN LAPORAN KINERJA PUSAT PELATIHAN DAN PENYULUHAN KP</v>
+        <v>B. PENYUSUNAN INSTRUMEN MONITORING DAN EVALUASI PELATIHAN DAN PENYULUHAN KP</v>
       </c>
       <c r="I136" t="s">
         <v>379</v>
@@ -11495,9 +11497,9 @@
       <c r="K136" t="s">
         <v>402</v>
       </c>
-      <c r="L136" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.202.A</v>
+      <c r="L136" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.201.B</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -11517,14 +11519,14 @@
         <v>201</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G137" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H137" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. PENYUSUNAN LAPORAN BULANAN DAN TAHUNAN PUSAT PELATIHAN DAN PENYULUHAN KP</v>
+        <v>A. PENYUSUNAN LAPORAN KINERJA PUSAT PELATIHAN DAN PENYULUHAN KP</v>
       </c>
       <c r="I137" t="s">
         <v>379</v>
@@ -11535,9 +11537,9 @@
       <c r="K137" t="s">
         <v>402</v>
       </c>
-      <c r="L137" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.202.B</v>
+      <c r="L137" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.202.A</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -11557,14 +11559,14 @@
         <v>201</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H138" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. PENYUSUNAN DOKUMEN RENCANA AKSI DAN EVALUASI RENCANA AKSI</v>
+        <v>B. PENYUSUNAN LAPORAN BULANAN DAN TAHUNAN PUSAT PELATIHAN DAN PENYULUHAN KP</v>
       </c>
       <c r="I138" t="s">
         <v>379</v>
@@ -11575,9 +11577,9 @@
       <c r="K138" t="s">
         <v>402</v>
       </c>
-      <c r="L138" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.202.C</v>
+      <c r="L138" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.202.B</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -11597,14 +11599,14 @@
         <v>201</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G139" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H139" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. SIMLATLUH KP</v>
+        <v>C. PENYUSUNAN DOKUMEN RENCANA AKSI DAN EVALUASI RENCANA AKSI</v>
       </c>
       <c r="I139" t="s">
         <v>379</v>
@@ -11615,9 +11617,9 @@
       <c r="K139" t="s">
         <v>402</v>
       </c>
-      <c r="L139" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.202.D</v>
+      <c r="L139" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.202.C</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -11634,30 +11636,30 @@
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="F140" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H140" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Monitoring dan Evaluasi Penyelenggaraan Pendidikan KP</v>
+        <v>D. SIMLATLUH KP</v>
       </c>
       <c r="I140" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J140" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K140" t="s">
-        <v>396</v>
-      </c>
-      <c r="L140" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L140" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.202.D</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -11677,14 +11679,14 @@
         <v>47</v>
       </c>
       <c r="F141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G141" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H141" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Data dan Informasi Pendidikan KP</v>
+        <v>A. Monitoring dan Evaluasi Penyelenggaraan Pendidikan KP</v>
       </c>
       <c r="I141" t="s">
         <v>373</v>
@@ -11695,9 +11697,9 @@
       <c r="K141" t="s">
         <v>396</v>
       </c>
-      <c r="L141" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.301.B</v>
+      <c r="L141" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.301.A</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -11714,17 +11716,17 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H142" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Penilaian Kinerja Pendidikan KP</v>
+        <v>B. Data dan Informasi Pendidikan KP</v>
       </c>
       <c r="I142" t="s">
         <v>373</v>
@@ -11735,9 +11737,9 @@
       <c r="K142" t="s">
         <v>396</v>
       </c>
-      <c r="L142" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.302.A</v>
+      <c r="L142" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.301.B</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -11748,36 +11750,36 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
         <v>65</v>
       </c>
       <c r="G143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H143" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Pengelolaan Sistem Informasi BRSDM</v>
+        <v>A. Penilaian Kinerja Pendidikan KP</v>
       </c>
       <c r="I143" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J143" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K143" t="s">
-        <v>402</v>
-      </c>
-      <c r="L143" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.FAB.001.103.A</v>
+        <v>396</v>
+      </c>
+      <c r="L143" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.302.A</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -11785,39 +11787,39 @@
         <v>405</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F144" t="s">
         <v>65</v>
       </c>
       <c r="G144" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H144" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Tugas Belajar Baru</v>
+        <v>A. Pengelolaan Sistem Informasi BRSDM</v>
       </c>
       <c r="I144" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J144" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K144" t="s">
-        <v>394</v>
-      </c>
-      <c r="L144" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.4345.EBC.996.301.A</v>
+        <v>402</v>
+      </c>
+      <c r="L144" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.FAB.001.103.A</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -11837,14 +11839,14 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H145" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Lanjutan Tugas Belajar</v>
+        <v>A. Tugas Belajar Baru</v>
       </c>
       <c r="I145" t="s">
         <v>373</v>
@@ -11855,9 +11857,9 @@
       <c r="K145" t="s">
         <v>394</v>
       </c>
-      <c r="L145" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.4345.EBC.996.301.B</v>
+      <c r="L145" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.4345.EBC.996.301.A</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -11877,14 +11879,14 @@
         <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G146" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="H146" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Dukungan Pencegahan Pandemi Covid-19</v>
+        <v>B. Lanjutan Tugas Belajar</v>
       </c>
       <c r="I146" t="s">
         <v>373</v>
@@ -11895,9 +11897,9 @@
       <c r="K146" t="s">
         <v>394</v>
       </c>
-      <c r="L146" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.4345.EBC.996.301.D</v>
+      <c r="L146" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.4345.EBC.996.301.B</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -11914,17 +11916,17 @@
         <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G147" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="H147" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Aparatur KKP yang Diberikan Izin Belajar</v>
+        <v>D. Dukungan Pencegahan Pandemi Covid-19</v>
       </c>
       <c r="I147" t="s">
         <v>373</v>
@@ -11935,9 +11937,9 @@
       <c r="K147" t="s">
         <v>394</v>
       </c>
-      <c r="L147" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.4345.EBC.996.302.A</v>
+      <c r="L147" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.4345.EBC.996.301.D</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -11945,33 +11947,39 @@
         <v>405</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F148" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="H148" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>DB. Gaji dan Tunjangan Pusat pelatihan dan Penyuluhan KP (AA)</v>
+        <v>A. Aparatur KKP yang Diberikan Izin Belajar</v>
       </c>
       <c r="I148" t="s">
-        <v>379</v>
-      </c>
-      <c r="L148" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.001.DB</v>
+        <v>373</v>
+      </c>
+      <c r="J148" t="s">
+        <v>384</v>
+      </c>
+      <c r="K148" t="s">
+        <v>394</v>
+      </c>
+      <c r="L148" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.4345.EBC.996.302.A</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -11991,21 +11999,21 @@
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H149" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AB. Gaji dan Tunjangan Sekretariat BRSDM (AA)</v>
+        <v>DB. Gaji dan Tunjangan Pusat pelatihan dan Penyuluhan KP (AA)</v>
       </c>
       <c r="I149" t="s">
-        <v>377</v>
-      </c>
-      <c r="L149" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.001.AB</v>
+        <v>379</v>
+      </c>
+      <c r="L149" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.001.DB</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -12025,27 +12033,21 @@
         <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="G150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H150" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GB. Gaji dan Tunjangan Pusat Pendidikan KP (AA)</v>
+        <v>AB. Gaji dan Tunjangan Sekretariat BRSDM (AA)</v>
       </c>
       <c r="I150" t="s">
-        <v>373</v>
-      </c>
-      <c r="J150" t="s">
-        <v>383</v>
-      </c>
-      <c r="K150" t="s">
-        <v>395</v>
-      </c>
-      <c r="L150" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.001.GB</v>
+        <v>377</v>
+      </c>
+      <c r="L150" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.001.AB</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -12062,17 +12064,17 @@
         <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G151" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H151" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>GE. Operasional Pusat Pendidikan KP (AA)</v>
+        <v>GB. Gaji dan Tunjangan Pusat Pendidikan KP (AA)</v>
       </c>
       <c r="I151" t="s">
         <v>373</v>
@@ -12081,11 +12083,11 @@
         <v>383</v>
       </c>
       <c r="K151" t="s">
-        <v>393</v>
-      </c>
-      <c r="L151" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.GE</v>
+        <v>395</v>
+      </c>
+      <c r="L151" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.001.GB</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -12096,36 +12098,36 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H152" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Blokir AA Tahap 2</v>
+        <v>GE. Operasional Pusat Pendidikan KP (AA)</v>
       </c>
       <c r="I152" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J152" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K152" t="s">
-        <v>402</v>
-      </c>
-      <c r="L152" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.101.C</v>
+        <v>393</v>
+      </c>
+      <c r="L152" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.GE</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -12136,10 +12138,10 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
         <v>170</v>
@@ -12148,11 +12150,11 @@
         <v>67</v>
       </c>
       <c r="G153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H153" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Forum Data dan Informasi (AA tahap 2)</v>
+        <v>C. Blokir AA Tahap 2</v>
       </c>
       <c r="I153" t="s">
         <v>377</v>
@@ -12163,9 +12165,9 @@
       <c r="K153" t="s">
         <v>402</v>
       </c>
-      <c r="L153" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.963.101.C</v>
+      <c r="L153" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.101.C</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -12176,23 +12178,23 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E154" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F154" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G154" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H154" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Blokir AA Tahap 2</v>
+        <v>C. Forum Data dan Informasi (AA tahap 2)</v>
       </c>
       <c r="I154" t="s">
         <v>377</v>
@@ -12203,9 +12205,9 @@
       <c r="K154" t="s">
         <v>402</v>
       </c>
-      <c r="L154" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.102.E</v>
+      <c r="L154" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.963.101.C</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -12216,23 +12218,23 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F155" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G155" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H155" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pelayanan Kehumasan (AA tahap 2)</v>
+        <v>E. Blokir AA Tahap 2</v>
       </c>
       <c r="I155" t="s">
         <v>377</v>
@@ -12243,9 +12245,9 @@
       <c r="K155" t="s">
         <v>402</v>
       </c>
-      <c r="L155" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.101.B</v>
+      <c r="L155" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.102.E</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -12253,29 +12255,29 @@
         <v>405</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="F156" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G156" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H156" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Automatic Adjustmen Penyelenggaraan Penyuluhan (AA)</v>
+        <v>B. Pelayanan Kehumasan (AA tahap 2)</v>
       </c>
       <c r="I156" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J156" t="s">
         <v>402</v>
@@ -12283,9 +12285,9 @@
       <c r="K156" t="s">
         <v>402</v>
       </c>
-      <c r="L156" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2375.AFA.001.054.E</v>
+      <c r="L156" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.101.B</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -12302,17 +12304,17 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
         <v>69</v>
       </c>
       <c r="G157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H157" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Automatic Adjusment Sarana Prasarana dan Kelembagaan Penyuluhan (AA)</v>
+        <v>E. Automatic Adjustmen Penyelenggaraan Penyuluhan (AA)</v>
       </c>
       <c r="I157" t="s">
         <v>379</v>
@@ -12323,9 +12325,9 @@
       <c r="K157" t="s">
         <v>402</v>
       </c>
-      <c r="L157" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2375.AFA.001.053.E</v>
+      <c r="L157" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2375.AFA.001.054.E</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -12342,17 +12344,17 @@
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F158" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H158" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>F. Automatic Adjusment Penyelenggaraan Pelatihan (AA)</v>
+        <v>E. Automatic Adjusment Sarana Prasarana dan Kelembagaan Penyuluhan (AA)</v>
       </c>
       <c r="I158" t="s">
         <v>379</v>
@@ -12363,9 +12365,9 @@
       <c r="K158" t="s">
         <v>402</v>
       </c>
-      <c r="L158" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2375.AFA.001.052.F</v>
+      <c r="L158" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2375.AFA.001.053.E</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -12373,29 +12375,29 @@
         <v>405</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G159" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H159" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Blokir AA Tahap 2</v>
+        <v>F. Automatic Adjusment Penyelenggaraan Pelatihan (AA)</v>
       </c>
       <c r="I159" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J159" t="s">
         <v>402</v>
@@ -12403,9 +12405,9 @@
       <c r="K159" t="s">
         <v>402</v>
       </c>
-      <c r="L159" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.101.E</v>
+      <c r="L159" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2375.AFA.001.052.F</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -12413,29 +12415,29 @@
         <v>405</v>
       </c>
       <c r="B160" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="F160" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G160" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H160" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>G. Automatic Adjustmen Standarisasi dan Sertifikasi (AA)</v>
+        <v>E. Blokir AA Tahap 2</v>
       </c>
       <c r="I160" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J160" t="s">
         <v>402</v>
@@ -12443,9 +12445,9 @@
       <c r="K160" t="s">
         <v>402</v>
       </c>
-      <c r="L160" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2375.AFA.001.051.G</v>
+      <c r="L160" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.101.E</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -12453,29 +12455,29 @@
         <v>405</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C161" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="F161" t="s">
         <v>71</v>
       </c>
       <c r="G161" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H161" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>G. Blokir AA Tahap 2</v>
+        <v>G. Automatic Adjustmen Standarisasi dan Sertifikasi (AA)</v>
       </c>
       <c r="I161" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J161" t="s">
         <v>402</v>
@@ -12483,9 +12485,9 @@
       <c r="K161" t="s">
         <v>402</v>
       </c>
-      <c r="L161" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.101.G</v>
+      <c r="L161" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2375.AFA.001.051.G</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -12499,20 +12501,20 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E162" t="s">
         <v>170</v>
       </c>
       <c r="F162" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G162" t="s">
         <v>351</v>
       </c>
       <c r="H162" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Blokir AA Tahap 2</v>
+        <v>G. Blokir AA Tahap 2</v>
       </c>
       <c r="I162" t="s">
         <v>377</v>
@@ -12523,9 +12525,9 @@
       <c r="K162" t="s">
         <v>402</v>
       </c>
-      <c r="L162" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.974.101.E</v>
+      <c r="L162" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.101.G</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -12536,23 +12538,23 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E163" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F163" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G163" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H163" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. pelayanan tata laksana dan RB (blokir AA)</v>
+        <v>E. Blokir AA Tahap 2</v>
       </c>
       <c r="I163" t="s">
         <v>377</v>
@@ -12563,9 +12565,9 @@
       <c r="K163" t="s">
         <v>402</v>
       </c>
-      <c r="L163" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.960.102.C</v>
+      <c r="L163" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.974.101.E</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -12579,20 +12581,20 @@
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E164" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F164" t="s">
         <v>67</v>
       </c>
       <c r="G164" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H164" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Fasilitasi hukum dan advokasi (AA jilid 2)</v>
+        <v>C. pelayanan tata laksana dan RB (blokir AA)</v>
       </c>
       <c r="I164" t="s">
         <v>377</v>
@@ -12603,9 +12605,9 @@
       <c r="K164" t="s">
         <v>402</v>
       </c>
-      <c r="L164" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.957.101.C</v>
+      <c r="L164" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.960.102.C</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -12619,7 +12621,7 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E165" t="s">
         <v>170</v>
@@ -12628,11 +12630,11 @@
         <v>67</v>
       </c>
       <c r="G165" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H165" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Blokir AA Tahap 2</v>
+        <v>C. Fasilitasi hukum dan advokasi (AA jilid 2)</v>
       </c>
       <c r="I165" t="s">
         <v>377</v>
@@ -12643,9 +12645,9 @@
       <c r="K165" t="s">
         <v>402</v>
       </c>
-      <c r="L165" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.101.C</v>
+      <c r="L165" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.957.101.C</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -12659,20 +12661,20 @@
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
         <v>170</v>
       </c>
       <c r="F166" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G166" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="H166" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>F. Bimbingan Teknis Pengelolaan BMN lingkup BRSDM KP</v>
+        <v>C. Blokir AA Tahap 2</v>
       </c>
       <c r="I166" t="s">
         <v>377</v>
@@ -12683,9 +12685,9 @@
       <c r="K166" t="s">
         <v>402</v>
       </c>
-      <c r="L166" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.F</v>
+      <c r="L166" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.101.C</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -12705,14 +12707,14 @@
         <v>170</v>
       </c>
       <c r="F167" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G167" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="H167" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>H. Blokir AA Tahap 2</v>
+        <v>F. Bimbingan Teknis Pengelolaan BMN lingkup BRSDM KP</v>
       </c>
       <c r="I167" t="s">
         <v>377</v>
@@ -12723,9 +12725,9 @@
       <c r="K167" t="s">
         <v>402</v>
       </c>
-      <c r="L167" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.956.101.H</v>
+      <c r="L167" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.F</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -12736,23 +12738,23 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E168" t="s">
         <v>170</v>
       </c>
       <c r="F168" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G168" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H168" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Pelayanan Renbang Aparatur (blokir AA)</v>
+        <v>H. Blokir AA Tahap 2</v>
       </c>
       <c r="I168" t="s">
         <v>377</v>
@@ -12763,9 +12765,9 @@
       <c r="K168" t="s">
         <v>402</v>
       </c>
-      <c r="L168" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.101.B</v>
+      <c r="L168" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.956.101.H</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -12782,17 +12784,17 @@
         <v>122</v>
       </c>
       <c r="E169" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G169" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H169" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Pelayanan Mutasi (blokir AA)</v>
+        <v>B. Pelayanan Renbang Aparatur (blokir AA)</v>
       </c>
       <c r="I169" t="s">
         <v>377</v>
@@ -12803,9 +12805,9 @@
       <c r="K169" t="s">
         <v>402</v>
       </c>
-      <c r="L169" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.103.C</v>
+      <c r="L169" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.101.B</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -12822,17 +12824,17 @@
         <v>122</v>
       </c>
       <c r="E170" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F170" t="s">
         <v>67</v>
       </c>
       <c r="G170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H170" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Fasilitasi Penilaian Angka Kredit (Blokir AA)</v>
+        <v>C. Pelayanan Mutasi (blokir AA)</v>
       </c>
       <c r="I170" t="s">
         <v>377</v>
@@ -12843,9 +12845,9 @@
       <c r="K170" t="s">
         <v>402</v>
       </c>
-      <c r="L170" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBC.954.102.C</v>
+      <c r="L170" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.103.C</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -12856,26 +12858,26 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="E171" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F171" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G171" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="H171" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Penetapan Penyuluh Perikanan Teladan Nasional</v>
+        <v>C. Fasilitasi Penilaian Angka Kredit (Blokir AA)</v>
       </c>
       <c r="I171" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J171" t="s">
         <v>402</v>
@@ -12883,9 +12885,9 @@
       <c r="K171" t="s">
         <v>402</v>
       </c>
-      <c r="L171" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.E</v>
+      <c r="L171" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBC.954.102.C</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -12905,14 +12907,14 @@
         <v>182</v>
       </c>
       <c r="F172" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G172" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="H172" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>G. Automatic Adjustmen layanan Umum (AA)</v>
+        <v>E. Penetapan Penyuluh Perikanan Teladan Nasional</v>
       </c>
       <c r="I172" t="s">
         <v>379</v>
@@ -12923,9 +12925,9 @@
       <c r="K172" t="s">
         <v>402</v>
       </c>
-      <c r="L172" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.201.G</v>
+      <c r="L172" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.E</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -12936,23 +12938,23 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
         <v>182</v>
       </c>
       <c r="F173" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G173" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="H173" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>A. Rekonsiliasi Belanja Pegawai dan Operasional Penyuluh Perikanan</v>
+        <v>G. Automatic Adjustmen layanan Umum (AA)</v>
       </c>
       <c r="I173" t="s">
         <v>379</v>
@@ -12963,9 +12965,9 @@
       <c r="K173" t="s">
         <v>402</v>
       </c>
-      <c r="L173" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.201.A</v>
+      <c r="L173" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.201.G</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -12985,14 +12987,14 @@
         <v>182</v>
       </c>
       <c r="F174" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G174" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="H174" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Automatic Adjustment pengelolaan keuangan blokir AA</v>
+        <v>A. Rekonsiliasi Belanja Pegawai dan Operasional Penyuluh Perikanan</v>
       </c>
       <c r="I174" t="s">
         <v>379</v>
@@ -13003,9 +13005,9 @@
       <c r="K174" t="s">
         <v>402</v>
       </c>
-      <c r="L174" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.201.E</v>
+      <c r="L174" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.201.A</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -13019,7 +13021,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E175" t="s">
         <v>182</v>
@@ -13028,11 +13030,11 @@
         <v>69</v>
       </c>
       <c r="G175" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H175" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>E. Automatic Adjustment Perencanaan Puslatluh KP (AA)</v>
+        <v>E. Automatic Adjustment pengelolaan keuangan blokir AA</v>
       </c>
       <c r="I175" t="s">
         <v>379</v>
@@ -13043,9 +13045,9 @@
       <c r="K175" t="s">
         <v>402</v>
       </c>
-      <c r="L175" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.201.E</v>
+      <c r="L175" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.201.E</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -13059,20 +13061,20 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
         <v>182</v>
       </c>
       <c r="F176" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H176" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Automatic Adjustment Evaluasi dan Pelaporan Puslatluh (AA)</v>
+        <v>E. Automatic Adjustment Perencanaan Puslatluh KP (AA)</v>
       </c>
       <c r="I176" t="s">
         <v>379</v>
@@ -13083,9 +13085,9 @@
       <c r="K176" t="s">
         <v>402</v>
       </c>
-      <c r="L176" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.201.C</v>
+      <c r="L176" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.201.E</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -13093,39 +13095,39 @@
         <v>405</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="F177" t="s">
         <v>67</v>
       </c>
       <c r="G177" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H177" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Tugas Belajar Luar Negeri</v>
+        <v>C. Automatic Adjustment Evaluasi dan Pelaporan Puslatluh (AA)</v>
       </c>
       <c r="I177" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J177" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K177" t="s">
-        <v>394</v>
-      </c>
-      <c r="L177" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.4345.EBC.996.301.C</v>
+        <v>402</v>
+      </c>
+      <c r="L177" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.201.C</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -13133,39 +13135,39 @@
         <v>405</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E178" t="s">
         <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H178" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>H. Dukungan Kegiatan Wisuda Pendidikan Tinggi dan Menengah Terpusat</v>
+        <v>C. Tugas Belajar Luar Negeri</v>
       </c>
       <c r="I178" t="s">
         <v>373</v>
       </c>
       <c r="J178" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K178" t="s">
-        <v>390</v>
-      </c>
-      <c r="L178" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.962.301.H</v>
+        <v>394</v>
+      </c>
+      <c r="L178" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.4345.EBC.996.301.C</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -13176,36 +13178,36 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
         <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G179" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H179" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>D. Blokir AA Tahap 2</v>
+        <v>H. Dukungan Kegiatan Wisuda Pendidikan Tinggi dan Menengah Terpusat</v>
       </c>
       <c r="I179" t="s">
         <v>373</v>
       </c>
       <c r="J179" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K179" t="s">
-        <v>394</v>
-      </c>
-      <c r="L179" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.952.301.D</v>
+        <v>390</v>
+      </c>
+      <c r="L179" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.962.301.H</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -13219,20 +13221,20 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E180" t="s">
         <v>47</v>
       </c>
       <c r="F180" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G180" t="s">
         <v>351</v>
       </c>
       <c r="H180" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. Blokir AA Tahap 2</v>
+        <v>D. Blokir AA Tahap 2</v>
       </c>
       <c r="I180" t="s">
         <v>373</v>
@@ -13241,11 +13243,11 @@
         <v>384</v>
       </c>
       <c r="K180" t="s">
-        <v>396</v>
-      </c>
-      <c r="L180" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.301.C</v>
+        <v>394</v>
+      </c>
+      <c r="L180" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.952.301.D</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -13262,17 +13264,17 @@
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F181" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G181" t="s">
         <v>351</v>
       </c>
       <c r="H181" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>B. Blokir AA Tahap 2</v>
+        <v>C. Blokir AA Tahap 2</v>
       </c>
       <c r="I181" t="s">
         <v>373</v>
@@ -13283,9 +13285,9 @@
       <c r="K181" t="s">
         <v>396</v>
       </c>
-      <c r="L181" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.953.302.B</v>
+      <c r="L181" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.301.C</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -13296,13 +13298,13 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F182" t="s">
         <v>66</v>
@@ -13321,11 +13323,11 @@
         <v>384</v>
       </c>
       <c r="K182" t="s">
-        <v>394</v>
-      </c>
-      <c r="L182" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.958.311.B</v>
+        <v>396</v>
+      </c>
+      <c r="L182" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.953.302.B</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -13336,13 +13338,13 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
         <v>66</v>
@@ -13358,14 +13360,14 @@
         <v>373</v>
       </c>
       <c r="J183" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K183" t="s">
-        <v>393</v>
-      </c>
-      <c r="L183" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.CAN.001.301.B</v>
+        <v>394</v>
+      </c>
+      <c r="L183" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.958.311.B</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -13376,10 +13378,10 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
         <v>47</v>
@@ -13403,9 +13405,9 @@
       <c r="K184" t="s">
         <v>393</v>
       </c>
-      <c r="L184" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBB.951.301.B</v>
+      <c r="L184" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.CAN.001.301.B</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -13416,23 +13418,23 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E185" t="s">
         <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G185" t="s">
         <v>351</v>
       </c>
       <c r="H185" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>G. Blokir AA Tahap 2</v>
+        <v>B. Blokir AA Tahap 2</v>
       </c>
       <c r="I185" t="s">
         <v>373</v>
@@ -13441,11 +13443,11 @@
         <v>383</v>
       </c>
       <c r="K185" t="s">
-        <v>395</v>
-      </c>
-      <c r="L185" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBD.955.301.G</v>
+        <v>393</v>
+      </c>
+      <c r="L185" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBB.951.301.B</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -13456,36 +13458,36 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="G186" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="H186" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>AH. Blokir AA Tahap2</v>
+        <v>G. Blokir AA Tahap 2</v>
       </c>
       <c r="I186" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J186" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K186" t="s">
-        <v>402</v>
-      </c>
-      <c r="L186" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
-        <v>WA.2378.EBA.994.002.AH</v>
+        <v>395</v>
+      </c>
+      <c r="L186" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBD.955.301.G</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -13499,20 +13501,20 @@
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="G187" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H187" t="str">
         <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
-        <v>C. AA Tahap 2</v>
+        <v>AH. Blokir AA Tahap2</v>
       </c>
       <c r="I187" t="s">
         <v>377</v>
@@ -13523,7 +13525,47 @@
       <c r="K187" t="s">
         <v>402</v>
       </c>
-      <c r="L187" s="7" t="str">
+      <c r="L187" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
+        <v>WA.2378.EBA.994.002.AH</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>405</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>178</v>
+      </c>
+      <c r="F188" t="s">
+        <v>67</v>
+      </c>
+      <c r="G188" t="s">
+        <v>371</v>
+      </c>
+      <c r="H188" t="str">
+        <f>_xlfn.TEXTJOIN(". ",TRUE,Ref_Skmpnen[[#This Row],[kdskmpnen]:[SubKomponen]])</f>
+        <v>C. AA Tahap 2</v>
+      </c>
+      <c r="I188" t="s">
+        <v>377</v>
+      </c>
+      <c r="J188" t="s">
+        <v>402</v>
+      </c>
+      <c r="K188" t="s">
+        <v>402</v>
+      </c>
+      <c r="L188" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,Ref_Skmpnen[[#This Row],[kdprog]:[kdskmpnen]])</f>
         <v>WA.2378.EBA.958.111.C</v>
       </c>
@@ -13531,31 +13573,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J26:K47 J85:K125 J147:K147 J174:K187 J18:K24 J49:K78 J80:K83 J13:K15 J2:K9 J127:K145 J172:K172 J151:K165 J167:K170" listDataValidation="1"/>
+    <ignoredError sqref="J31:K48 J86:K126 J148:K148 J175:K188 J18:K24 J50:K79 J81:K84 J13:K15 J2:K9 J128:K146 J173:K173 J152:K166 J168:K171 J26:K29" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{548C234A-24A4-4D95-8D3F-7E8BD7F11133}">
           <x14:formula1>
             <xm:f>Ref_IKU!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I187</xm:sqref>
+          <xm:sqref>I2:I188</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A067131E-C6E2-45C1-8ADE-8F277BA3C726}">
           <x14:formula1>
             <xm:f>Ref_IKU!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J187</xm:sqref>
+          <xm:sqref>J2:J188</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C3D484A-DF39-45F5-A34C-E20F17439DF7}">
           <x14:formula1>
             <xm:f>Ref_IKU!$M$2:$M$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K187</xm:sqref>
+          <xm:sqref>K2:K188</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
